--- a/pred_ohlcv/54_21/2020-01-25 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 VALOR ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-112695.9071</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-120937.0524</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-120937.0524</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-120937.0524</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-115591.5417</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-106015.6980871901</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-88679.31848719015</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-87987.92648719014</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-87468.01558719014</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-66145.37160000006</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-70350.11970000005</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-70350.11970000005</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-67371.63550000006</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-67023.67970000005</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 VALOR ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-112695.9071</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-120937.0524</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-120937.0524</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-115591.5417</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-106015.6980871901</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-88679.31848719015</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-87987.92648719014</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-87468.01558719014</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-66145.37160000006</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-70350.11970000005</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-71488.83360000006</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-67371.63550000006</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-67023.67970000005</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
